--- a/files_bin/Planificacion.xlsx
+++ b/files_bin/Planificacion.xlsx
@@ -82,8 +82,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,9 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +427,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +534,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
@@ -539,7 +548,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
@@ -553,7 +562,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
@@ -652,7 +661,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K14" t="s">
@@ -669,7 +678,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K15" t="s">
@@ -766,6 +775,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
